--- a/Web/files/ELM forecasting/FORECAST ELM.xlsx
+++ b/Web/files/ELM forecasting/FORECAST ELM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wahyu Mubarak S\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Kuliah\TA\Projek-TA\Web\files\ELM forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465034A-718E-4DC2-9B1F-CF4C8C13CBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5409062C-D39B-4097-A16C-D115B064B4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DKI1" sheetId="1" r:id="rId1"/>
@@ -1070,13 +1070,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D509CE1-9765-47A3-882E-4B28021CA320}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1107,7 +1108,7 @@
         <v>45.007682665611007</v>
       </c>
       <c r="C2" s="3">
-        <v>45.007682665611007</v>
+        <v>31.246926210000002</v>
       </c>
       <c r="D2" s="3">
         <v>17.121440151718659</v>
@@ -1127,7 +1128,7 @@
         <v>56.97089205065501</v>
       </c>
       <c r="C3" s="3">
-        <v>56.97089205065501</v>
+        <v>32.464636249999998</v>
       </c>
       <c r="D3" s="3">
         <v>13.682170962108311</v>
@@ -1147,7 +1148,7 @@
         <v>55.391163549599923</v>
       </c>
       <c r="C4" s="3">
-        <v>55.391163549599923</v>
+        <v>35.1441199</v>
       </c>
       <c r="D4" s="3">
         <v>14.22355161678921</v>
@@ -1167,7 +1168,7 @@
         <v>65.344139464430896</v>
       </c>
       <c r="C5" s="3">
-        <v>65.344139464430896</v>
+        <v>36.81661398</v>
       </c>
       <c r="D5" s="3">
         <v>19.047922990876071</v>
@@ -1187,7 +1188,7 @@
         <v>51.874529091220673</v>
       </c>
       <c r="C6" s="3">
-        <v>51.874529091220673</v>
+        <v>32.838756609999997</v>
       </c>
       <c r="D6" s="3">
         <v>27.89738500639827</v>
@@ -1207,7 +1208,7 @@
         <v>51.896173479915497</v>
       </c>
       <c r="C7" s="3">
-        <v>51.896173479915497</v>
+        <v>31.73053827</v>
       </c>
       <c r="D7" s="3">
         <v>26.11084914756891</v>
@@ -1227,7 +1228,7 @@
         <v>61.701813545376638</v>
       </c>
       <c r="C8" s="3">
-        <v>61.701813545376638</v>
+        <v>33.694716309999997</v>
       </c>
       <c r="D8" s="3">
         <v>20.778901734699669</v>
@@ -1247,7 +1248,7 @@
         <v>55.757075647952462</v>
       </c>
       <c r="C9" s="3">
-        <v>55.757075647952462</v>
+        <v>33.779772960000003</v>
       </c>
       <c r="D9" s="3">
         <v>11.258105941484001</v>
@@ -1267,7 +1268,7 @@
         <v>56.61564672855819</v>
       </c>
       <c r="C10" s="3">
-        <v>56.61564672855819</v>
+        <v>32.705885979999998</v>
       </c>
       <c r="D10" s="3">
         <v>10.18739287033419</v>
@@ -1287,7 +1288,7 @@
         <v>47.749715603047107</v>
       </c>
       <c r="C11" s="3">
-        <v>47.749715603047107</v>
+        <v>31.984211080000001</v>
       </c>
       <c r="D11" s="3">
         <v>16.80691650705354</v>
@@ -1307,7 +1308,7 @@
         <v>52.521798118740051</v>
       </c>
       <c r="C12" s="3">
-        <v>52.521798118740051</v>
+        <v>31.181223630000002</v>
       </c>
       <c r="D12" s="3">
         <v>12.99018961306451</v>
@@ -1327,7 +1328,7 @@
         <v>55.684645377476237</v>
       </c>
       <c r="C13" s="3">
-        <v>55.684645377476237</v>
+        <v>31.288028440000001</v>
       </c>
       <c r="D13" s="3">
         <v>26.970776663934281</v>
@@ -1347,7 +1348,7 @@
         <v>52.100630406555467</v>
       </c>
       <c r="C14" s="3">
-        <v>52.100630406555467</v>
+        <v>32.233465639999999</v>
       </c>
       <c r="D14" s="3">
         <v>25.890537829295049</v>
@@ -1367,7 +1368,7 @@
         <v>56.96143835542906</v>
       </c>
       <c r="C15" s="3">
-        <v>56.96143835542906</v>
+        <v>32.1091689</v>
       </c>
       <c r="D15" s="3">
         <v>33.781761341894963</v>
@@ -1387,7 +1388,7 @@
         <v>57.143386394807962</v>
       </c>
       <c r="C16" s="3">
-        <v>57.143386394807962</v>
+        <v>31.529856980000002</v>
       </c>
       <c r="D16" s="3">
         <v>32.806874850675769</v>
@@ -1407,7 +1408,7 @@
         <v>49.690769997406314</v>
       </c>
       <c r="C17" s="3">
-        <v>49.690769997406314</v>
+        <v>31.752060369999999</v>
       </c>
       <c r="D17" s="3">
         <v>32.737689308924502</v>
@@ -1427,7 +1428,7 @@
         <v>56.83265093081711</v>
       </c>
       <c r="C18" s="3">
-        <v>56.83265093081711</v>
+        <v>33.437345460000003</v>
       </c>
       <c r="D18" s="3">
         <v>23.43037205731498</v>
@@ -1447,7 +1448,7 @@
         <v>49.467753315241417</v>
       </c>
       <c r="C19" s="3">
-        <v>49.467753315241417</v>
+        <v>33.953034770000002</v>
       </c>
       <c r="D19" s="3">
         <v>26.654716786721188</v>
@@ -1467,7 +1468,7 @@
         <v>50.185256680858593</v>
       </c>
       <c r="C20" s="3">
-        <v>50.185256680858593</v>
+        <v>32.989783359999997</v>
       </c>
       <c r="D20" s="3">
         <v>33.31784433989543</v>
@@ -1487,7 +1488,7 @@
         <v>60.430073991628703</v>
       </c>
       <c r="C21" s="3">
-        <v>60.430073991628703</v>
+        <v>32.528868750000001</v>
       </c>
       <c r="D21" s="3">
         <v>41.285636743182927</v>
@@ -1507,7 +1508,7 @@
         <v>50.945410801820593</v>
       </c>
       <c r="C22" s="3">
-        <v>50.945410801820593</v>
+        <v>32.867997090000003</v>
       </c>
       <c r="D22" s="3">
         <v>41.569897632688047</v>
@@ -1527,7 +1528,7 @@
         <v>52.088408975666233</v>
       </c>
       <c r="C23" s="3">
-        <v>52.088408975666233</v>
+        <v>32.840477640000003</v>
       </c>
       <c r="D23" s="3">
         <v>16.395836960532449</v>
@@ -1547,7 +1548,7 @@
         <v>47.349541957335369</v>
       </c>
       <c r="C24" s="3">
-        <v>47.349541957335369</v>
+        <v>32.607683979999997</v>
       </c>
       <c r="D24" s="3">
         <v>26.318941560558851</v>
@@ -1567,7 +1568,7 @@
         <v>51.513768569268542</v>
       </c>
       <c r="C25" s="3">
-        <v>51.513768569268542</v>
+        <v>32.173532999999999</v>
       </c>
       <c r="D25" s="3">
         <v>32.998420611520743</v>
@@ -1587,7 +1588,7 @@
         <v>50.856996917496659</v>
       </c>
       <c r="C26" s="3">
-        <v>50.856996917496659</v>
+        <v>31.729521770000002</v>
       </c>
       <c r="D26" s="3">
         <v>28.091296745052599</v>
@@ -1607,7 +1608,7 @@
         <v>51.310600477012557</v>
       </c>
       <c r="C27" s="3">
-        <v>51.310600477012557</v>
+        <v>31.861761220000002</v>
       </c>
       <c r="D27" s="3">
         <v>35.875489230306648</v>
@@ -1627,7 +1628,7 @@
         <v>44.224570054847312</v>
       </c>
       <c r="C28" s="3">
-        <v>44.224570054847312</v>
+        <v>32.369893779999998</v>
       </c>
       <c r="D28" s="3">
         <v>40.802479485155111</v>
@@ -1647,7 +1648,7 @@
         <v>49.114302476632552</v>
       </c>
       <c r="C29" s="3">
-        <v>49.114302476632552</v>
+        <v>32.556455249999999</v>
       </c>
       <c r="D29" s="3">
         <v>18.763933439611009</v>
@@ -1667,7 +1668,7 @@
         <v>42.314005337487743</v>
       </c>
       <c r="C30" s="3">
-        <v>42.314005337487743</v>
+        <v>32.15151007</v>
       </c>
       <c r="D30" s="3">
         <v>21.299129198696999</v>
@@ -1687,7 +1688,7 @@
         <v>49.268794964849548</v>
       </c>
       <c r="C31" s="3">
-        <v>49.268794964849548</v>
+        <v>32.228290020000003</v>
       </c>
       <c r="D31" s="3">
         <v>10.35794223361189</v>
@@ -1707,7 +1708,7 @@
         <v>46.135086342904827</v>
       </c>
       <c r="C32" s="3">
-        <v>46.135086342904827</v>
+        <v>32.79541184</v>
       </c>
       <c r="D32" s="3">
         <v>43.155910307154841</v>
@@ -3044,7 +3045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69B560A-1A2B-47C6-8C44-2FE62788F89A}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/Web/files/ELM forecasting/FORECAST ELM.xlsx
+++ b/Web/files/ELM forecasting/FORECAST ELM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Kuliah\TA\Projek-TA\Web\files\ELM forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Kuliah\TA\Projek-Capstone-Design\Web\files\ELM forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5409062C-D39B-4097-A16C-D115B064B4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8CE156-A8C5-4543-B140-B01C68A02643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DKI1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,18 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,19 +109,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8A87D221-5F3F-42B6-A20D-C401BF4B5057}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +464,7 @@
         <v>44896</v>
       </c>
       <c r="B2" s="3">
-        <v>54.718151812497119</v>
+        <v>55.866793425629389</v>
       </c>
       <c r="C2" s="3">
         <v>35.449255469635801</v>
@@ -466,7 +484,7 @@
         <v>44897</v>
       </c>
       <c r="B3" s="3">
-        <v>58.883470987792982</v>
+        <v>56.661557265323538</v>
       </c>
       <c r="C3" s="3">
         <v>41.34820884571144</v>
@@ -486,7 +504,7 @@
         <v>44898</v>
       </c>
       <c r="B4" s="3">
-        <v>48.516149794586987</v>
+        <v>61.376703029404958</v>
       </c>
       <c r="C4" s="3">
         <v>41.800541838030917</v>
@@ -506,7 +524,7 @@
         <v>44899</v>
       </c>
       <c r="B5" s="3">
-        <v>71.169048261793094</v>
+        <v>55.031563685205953</v>
       </c>
       <c r="C5" s="3">
         <v>31.550135113567631</v>
@@ -526,7 +544,7 @@
         <v>44900</v>
       </c>
       <c r="B6" s="3">
-        <v>48.543531842942308</v>
+        <v>49.010974054108779</v>
       </c>
       <c r="C6" s="3">
         <v>32.493073139283183</v>
@@ -546,7 +564,7 @@
         <v>44901</v>
       </c>
       <c r="B7" s="3">
-        <v>68.055813114287716</v>
+        <v>60.110428947131247</v>
       </c>
       <c r="C7" s="3">
         <v>35.689108552266347</v>
@@ -566,7 +584,7 @@
         <v>44902</v>
       </c>
       <c r="B8" s="3">
-        <v>60.847186611130141</v>
+        <v>54.287750905071519</v>
       </c>
       <c r="C8" s="3">
         <v>36.626658138620471</v>
@@ -586,7 +604,7 @@
         <v>44903</v>
       </c>
       <c r="B9" s="3">
-        <v>53.222705206378627</v>
+        <v>57.735795938537279</v>
       </c>
       <c r="C9" s="3">
         <v>36.110438054458719</v>
@@ -606,7 +624,7 @@
         <v>44904</v>
       </c>
       <c r="B10" s="3">
-        <v>62.349553768746333</v>
+        <v>57.49230190526616</v>
       </c>
       <c r="C10" s="3">
         <v>38.263663133114918</v>
@@ -626,7 +644,7 @@
         <v>44905</v>
       </c>
       <c r="B11" s="3">
-        <v>64.148031497528422</v>
+        <v>52.894533271352763</v>
       </c>
       <c r="C11" s="3">
         <v>36.287393695980803</v>
@@ -646,7 +664,7 @@
         <v>44906</v>
       </c>
       <c r="B12" s="3">
-        <v>69.937112028249288</v>
+        <v>53.947482718205293</v>
       </c>
       <c r="C12" s="3">
         <v>31.996907336534932</v>
@@ -666,7 +684,7 @@
         <v>44907</v>
       </c>
       <c r="B13" s="3">
-        <v>74.309500102559966</v>
+        <v>48.676091976827699</v>
       </c>
       <c r="C13" s="3">
         <v>32.469900790035723</v>
@@ -686,7 +704,7 @@
         <v>44908</v>
       </c>
       <c r="B14" s="3">
-        <v>66.41291473781169</v>
+        <v>47.829124735498162</v>
       </c>
       <c r="C14" s="3">
         <v>37.602239166791819</v>
@@ -706,7 +724,7 @@
         <v>44909</v>
       </c>
       <c r="B15" s="3">
-        <v>57.534856746373819</v>
+        <v>51.158474130400919</v>
       </c>
       <c r="C15" s="3">
         <v>32.584816491159643</v>
@@ -726,7 +744,7 @@
         <v>44910</v>
       </c>
       <c r="B16" s="3">
-        <v>52.057944195037862</v>
+        <v>52.229069656882288</v>
       </c>
       <c r="C16" s="3">
         <v>38.126778753536527</v>
@@ -746,7 +764,7 @@
         <v>44911</v>
       </c>
       <c r="B17" s="3">
-        <v>49.879112773561992</v>
+        <v>54.204348034164163</v>
       </c>
       <c r="C17" s="3">
         <v>34.714893594540527</v>
@@ -766,7 +784,7 @@
         <v>44912</v>
       </c>
       <c r="B18" s="3">
-        <v>50.947328053030823</v>
+        <v>52.889218072451492</v>
       </c>
       <c r="C18" s="3">
         <v>33.233192390295173</v>
@@ -786,7 +804,7 @@
         <v>44913</v>
       </c>
       <c r="B19" s="3">
-        <v>56.312451419289701</v>
+        <v>51.735476209764023</v>
       </c>
       <c r="C19" s="3">
         <v>31.353084733511071</v>
@@ -806,7 +824,7 @@
         <v>44914</v>
       </c>
       <c r="B20" s="3">
-        <v>62.797820644616188</v>
+        <v>50.093601410268271</v>
       </c>
       <c r="C20" s="3">
         <v>31.50941787391654</v>
@@ -826,7 +844,7 @@
         <v>44915</v>
       </c>
       <c r="B21" s="3">
-        <v>62.178957798801306</v>
+        <v>46.78774053518395</v>
       </c>
       <c r="C21" s="3">
         <v>29.54275836973963</v>
@@ -846,7 +864,7 @@
         <v>44916</v>
       </c>
       <c r="B22" s="3">
-        <v>58.509562292960858</v>
+        <v>48.783038007046308</v>
       </c>
       <c r="C22" s="3">
         <v>29.55745172832949</v>
@@ -866,7 +884,7 @@
         <v>44917</v>
       </c>
       <c r="B23" s="3">
-        <v>70.982805779755111</v>
+        <v>48.775332840014883</v>
       </c>
       <c r="C23" s="3">
         <v>34.692000318170408</v>
@@ -886,7 +904,7 @@
         <v>44918</v>
       </c>
       <c r="B24" s="3">
-        <v>76.423401247878431</v>
+        <v>52.005051394197487</v>
       </c>
       <c r="C24" s="3">
         <v>30.89997218231591</v>
@@ -906,7 +924,7 @@
         <v>44919</v>
       </c>
       <c r="B25" s="3">
-        <v>69.146723666575014</v>
+        <v>54.209086365508519</v>
       </c>
       <c r="C25" s="3">
         <v>30.77242188563779</v>
@@ -926,7 +944,7 @@
         <v>44920</v>
       </c>
       <c r="B26" s="3">
-        <v>64.578503175587869</v>
+        <v>56.348328718110487</v>
       </c>
       <c r="C26" s="3">
         <v>32.357465830854537</v>
@@ -946,7 +964,7 @@
         <v>44921</v>
       </c>
       <c r="B27" s="3">
-        <v>64.537919241955649</v>
+        <v>55.112265306069787</v>
       </c>
       <c r="C27" s="3">
         <v>31.92929224420887</v>
@@ -966,7 +984,7 @@
         <v>44922</v>
       </c>
       <c r="B28" s="3">
-        <v>56.915358750185007</v>
+        <v>52.866702580918357</v>
       </c>
       <c r="C28" s="3">
         <v>28.37796424873801</v>
@@ -986,7 +1004,7 @@
         <v>44923</v>
       </c>
       <c r="B29" s="3">
-        <v>63.018669212544232</v>
+        <v>52.353214251081233</v>
       </c>
       <c r="C29" s="3">
         <v>32.905042639074097</v>
@@ -1006,7 +1024,7 @@
         <v>44924</v>
       </c>
       <c r="B30" s="3">
-        <v>53.572709293468073</v>
+        <v>50.905884228934049</v>
       </c>
       <c r="C30" s="3">
         <v>30.079316765171111</v>
@@ -1026,7 +1044,7 @@
         <v>44925</v>
       </c>
       <c r="B31" s="3">
-        <v>53.967881306953522</v>
+        <v>50.944324489860833</v>
       </c>
       <c r="C31" s="3">
         <v>28.501747103551249</v>
@@ -1046,7 +1064,7 @@
         <v>44926</v>
       </c>
       <c r="B32" s="3">
-        <v>56.512185978798897</v>
+        <v>51.609887671466161</v>
       </c>
       <c r="C32" s="3">
         <v>31.880981908601399</v>
@@ -1070,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D509CE1-9765-47A3-882E-4B28021CA320}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,19 +1122,19 @@
       <c r="A2" s="2">
         <v>44896</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>45.007682665611007</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>31.246926210000002</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>17.121440151718659</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>30.265108188124572</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>10.64848988372524</v>
       </c>
     </row>
@@ -1124,19 +1142,19 @@
       <c r="A3" s="2">
         <v>44897</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>56.97089205065501</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>32.464636249999998</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>13.682170962108311</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>32.012955668435019</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>13.20066919531665</v>
       </c>
     </row>
@@ -1144,19 +1162,19 @@
       <c r="A4" s="2">
         <v>44898</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>55.391163549599923</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>35.1441199</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>14.22355161678921</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>31.450731629072958</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>22.065037226703659</v>
       </c>
     </row>
@@ -1164,19 +1182,19 @@
       <c r="A5" s="2">
         <v>44899</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>65.344139464430896</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>36.81661398</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>19.047922990876071</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>29.565337597747011</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>10.275448976553109</v>
       </c>
     </row>
@@ -1184,19 +1202,19 @@
       <c r="A6" s="2">
         <v>44900</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>51.874529091220673</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>32.838756609999997</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>27.89738500639827</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>34.786882603121029</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>20.174350986704791</v>
       </c>
     </row>
@@ -1204,19 +1222,19 @@
       <c r="A7" s="2">
         <v>44901</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>51.896173479915497</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>31.73053827</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>26.11084914756891</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>29.817692650845011</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>20.578835959605499</v>
       </c>
     </row>
@@ -1224,19 +1242,19 @@
       <c r="A8" s="2">
         <v>44902</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>61.701813545376638</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>33.694716309999997</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>20.778901734699669</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>25.191152858022281</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>16.7841778196211</v>
       </c>
     </row>
@@ -1244,19 +1262,19 @@
       <c r="A9" s="2">
         <v>44903</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>55.757075647952462</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>33.779772960000003</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>11.258105941484001</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>38.821180153910667</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>20.226548818554679</v>
       </c>
     </row>
@@ -1264,19 +1282,19 @@
       <c r="A10" s="2">
         <v>44904</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>56.61564672855819</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>32.705885979999998</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>10.18739287033419</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>42.875059466754891</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>10.60999287806491</v>
       </c>
     </row>
@@ -1284,19 +1302,19 @@
       <c r="A11" s="2">
         <v>44905</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>47.749715603047107</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>31.984211080000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>16.80691650705354</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>26.98855285285611</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>20.06350114898494</v>
       </c>
     </row>
@@ -1304,19 +1322,19 @@
       <c r="A12" s="2">
         <v>44906</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>52.521798118740051</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>31.181223630000002</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>12.99018961306451</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>44.959934972325406</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>27.612914877145759</v>
       </c>
     </row>
@@ -1324,19 +1342,19 @@
       <c r="A13" s="2">
         <v>44907</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>55.684645377476237</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>31.288028440000001</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>26.970776663934281</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>23.694166612863039</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>12.82607307152518</v>
       </c>
     </row>
@@ -1344,19 +1362,19 @@
       <c r="A14" s="2">
         <v>44908</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>52.100630406555467</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>32.233465639999999</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>25.890537829295049</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>18.240893417718031</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>14.231496241838819</v>
       </c>
     </row>
@@ -1364,19 +1382,19 @@
       <c r="A15" s="2">
         <v>44909</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>56.96143835542906</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>32.1091689</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>33.781761341894963</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>23.549796965425941</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>17.123742365398929</v>
       </c>
     </row>
@@ -1384,19 +1402,19 @@
       <c r="A16" s="2">
         <v>44910</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>57.143386394807962</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>31.529856980000002</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>32.806874850675769</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>15.811931160548779</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>12.9342448970717</v>
       </c>
     </row>
@@ -1404,19 +1422,19 @@
       <c r="A17" s="2">
         <v>44911</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>49.690769997406314</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>31.752060369999999</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>32.737689308924502</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>9.3478856964211321</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>12.41350892235703</v>
       </c>
     </row>
@@ -1424,19 +1442,19 @@
       <c r="A18" s="2">
         <v>44912</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>56.83265093081711</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>33.437345460000003</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>23.43037205731498</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>37.198430329622703</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>22.0681405560039</v>
       </c>
     </row>
@@ -1444,19 +1462,19 @@
       <c r="A19" s="2">
         <v>44913</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>49.467753315241417</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>33.953034770000002</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>26.654716786721188</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>45.048181176670852</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>29.681222973190131</v>
       </c>
     </row>
@@ -1464,19 +1482,19 @@
       <c r="A20" s="2">
         <v>44914</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>50.185256680858593</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>32.989783359999997</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>33.31784433989543</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>29.511336554957399</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>8.5206333284362135</v>
       </c>
     </row>
@@ -1484,19 +1502,19 @@
       <c r="A21" s="2">
         <v>44915</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>60.430073991628703</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>32.528868750000001</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>41.285636743182927</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>30.187544258088518</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>15.653076382304979</v>
       </c>
     </row>
@@ -1504,19 +1522,19 @@
       <c r="A22" s="2">
         <v>44916</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>50.945410801820593</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>32.867997090000003</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>41.569897632688047</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>27.24612337780793</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>18.458100424654361</v>
       </c>
     </row>
@@ -1524,19 +1542,19 @@
       <c r="A23" s="2">
         <v>44917</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>52.088408975666233</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>32.840477640000003</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>16.395836960532449</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>27.644323686367891</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>13.02560615994105</v>
       </c>
     </row>
@@ -1544,19 +1562,19 @@
       <c r="A24" s="2">
         <v>44918</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>47.349541957335369</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>32.607683979999997</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>26.318941560558851</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>36.797675785076741</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>23.548412123426321</v>
       </c>
     </row>
@@ -1564,19 +1582,19 @@
       <c r="A25" s="2">
         <v>44919</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>51.513768569268542</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>32.173532999999999</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>32.998420611520743</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>51.398182625471648</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>35.234192069486987</v>
       </c>
     </row>
@@ -1584,19 +1602,19 @@
       <c r="A26" s="2">
         <v>44920</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>50.856996917496659</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <v>31.729521770000002</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <v>28.091296745052599</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <v>36.426944392355637</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <v>20.033077235273879</v>
       </c>
     </row>
@@ -1604,19 +1622,19 @@
       <c r="A27" s="2">
         <v>44921</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>51.310600477012557</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>31.861761220000002</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>35.875489230306648</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>41.554060410002613</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>20.957935136146741</v>
       </c>
     </row>
@@ -1624,19 +1642,19 @@
       <c r="A28" s="2">
         <v>44922</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>44.224570054847312</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>32.369893779999998</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>40.802479485155111</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>32.661045268819237</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <v>20.27423735968426</v>
       </c>
     </row>
@@ -1644,19 +1662,19 @@
       <c r="A29" s="2">
         <v>44923</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>49.114302476632552</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>32.556455249999999</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <v>18.763933439611009</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>25.45751513588624</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>17.492444499351869</v>
       </c>
     </row>
@@ -1664,19 +1682,19 @@
       <c r="A30" s="2">
         <v>44924</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>42.314005337487743</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>32.15151007</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <v>21.299129198696999</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="4">
         <v>41.210216398027903</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>7.5677831299461014</v>
       </c>
     </row>
@@ -1684,19 +1702,19 @@
       <c r="A31" s="2">
         <v>44925</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>49.268794964849548</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>32.228290020000003</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>10.35794223361189</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>29.993509825827861</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>27.647648176127529</v>
       </c>
     </row>
@@ -1704,19 +1722,19 @@
       <c r="A32" s="2">
         <v>44926</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>46.135086342904827</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>32.79541184</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <v>43.155910307154841</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>47.706523257701249</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>38.634907831066258</v>
       </c>
     </row>
@@ -1730,7 +1748,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B2" sqref="B2:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1762,19 +1780,19 @@
       <c r="A2" s="2">
         <v>44896</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>31.841495897149699</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>32.080166844401639</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>5.8032761273925049</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>13.47653281754561</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>10.40415964425531</v>
       </c>
     </row>
@@ -1782,19 +1800,19 @@
       <c r="A3" s="2">
         <v>44897</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>37.715619003753162</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>42.726015558970083</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>8.4488054435794187</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>15.329438918357591</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>19.151032170908771</v>
       </c>
     </row>
@@ -1802,19 +1820,19 @@
       <c r="A4" s="2">
         <v>44898</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>44.410073824960101</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>49.397563960841801</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>13.270930413127861</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>15.6207527545319</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>13.298888867081089</v>
       </c>
     </row>
@@ -1822,19 +1840,19 @@
       <c r="A5" s="2">
         <v>44899</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>53.210491213598189</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>43.12948964697344</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>15.11787120131193</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>0.71238034432560271</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>10.81149703748784</v>
       </c>
     </row>
@@ -1842,19 +1860,19 @@
       <c r="A6" s="2">
         <v>44900</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>45.881838805086808</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>44.368552743655137</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>17.37801904471749</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>10.2816101981679</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>9.3836982351797236</v>
       </c>
     </row>
@@ -1862,19 +1880,19 @@
       <c r="A7" s="2">
         <v>44901</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>29.44226667151251</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>43.128283297592262</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>13.053002230262649</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>16.141449782436581</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>13.28212065486114</v>
       </c>
     </row>
@@ -1882,19 +1900,19 @@
       <c r="A8" s="2">
         <v>44902</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>48.880336462227937</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>38.25810023930579</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>1.32949951759853</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>11.90880787311735</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>19.120976550590669</v>
       </c>
     </row>
@@ -1902,19 +1920,19 @@
       <c r="A9" s="2">
         <v>44903</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>36.197846450857043</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>42.700274537509912</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>11.354203272829411</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>4.7272769775231316</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>16.034934076919541</v>
       </c>
     </row>
@@ -1922,19 +1940,19 @@
       <c r="A10" s="2">
         <v>44904</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>53.422042831406003</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>47.601462640124417</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>18.906405459024029</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>14.21030343098335</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>17.44829694756373</v>
       </c>
     </row>
@@ -1942,19 +1960,19 @@
       <c r="A11" s="2">
         <v>44905</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>43.192795118764607</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>46.023716872575022</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>7.7413579637462284</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>16.822318087995971</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>14.644347043113919</v>
       </c>
     </row>
@@ -1962,19 +1980,19 @@
       <c r="A12" s="2">
         <v>44906</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>42.894682312606108</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>43.905609950039512</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>12.312763474143839</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>7.1273872228301496</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>16.815527389547611</v>
       </c>
     </row>
@@ -1982,19 +2000,19 @@
       <c r="A13" s="2">
         <v>44907</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>36.604941678932839</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>38.405437266684181</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>8.0465072944968306</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>16.144838049318661</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>28.00593874383447</v>
       </c>
     </row>
@@ -2002,19 +2020,19 @@
       <c r="A14" s="2">
         <v>44908</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>39.085984325374788</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>41.749934510780882</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>14.88248668676982</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>16.687154088697579</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>13.86453949404067</v>
       </c>
     </row>
@@ -2022,19 +2040,19 @@
       <c r="A15" s="2">
         <v>44909</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>46.103929126012147</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>39.895558073510848</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>12.472547739495299</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>9.8728393927226268</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>21.645599993382529</v>
       </c>
     </row>
@@ -2042,19 +2060,19 @@
       <c r="A16" s="2">
         <v>44910</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="5">
         <v>36.286056579189982</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>45.140356426260212</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>12.42779125283483</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>18.745210040954461</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="5">
         <v>19.401334656561001</v>
       </c>
     </row>
@@ -2062,19 +2080,19 @@
       <c r="A17" s="2">
         <v>44911</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>35.00522719259552</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>40.767805287160343</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>14.273547823422509</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>24.676317114548649</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>26.872927281117569</v>
       </c>
     </row>
@@ -2082,19 +2100,19 @@
       <c r="A18" s="2">
         <v>44912</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
         <v>35.543628765731647</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>44.018670055753361</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>18.87943144473299</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <v>19.68121362985168</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>27.96122628098491</v>
       </c>
     </row>
@@ -2102,19 +2120,19 @@
       <c r="A19" s="2">
         <v>44913</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>41.231105353920732</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>43.166383476346979</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>23.464684358918038</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>17.377967230383359</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="5">
         <v>12.7738876582115</v>
       </c>
     </row>
@@ -2122,19 +2140,19 @@
       <c r="A20" s="2">
         <v>44914</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <v>44.806163359690721</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>40.998230493120971</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>9.9213298816905411</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <v>23.114269143568659</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>22.150446748237691</v>
       </c>
     </row>
@@ -2142,19 +2160,19 @@
       <c r="A21" s="2">
         <v>44915</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <v>31.42525141631732</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <v>39.151906103116033</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>5.4667307905235054</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <v>17.308689340482491</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <v>11.74467577578652</v>
       </c>
     </row>
@@ -2162,19 +2180,19 @@
       <c r="A22" s="2">
         <v>44916</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
         <v>39.760838613989513</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>41.324850925625547</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>13.286928585215801</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <v>15.037332370836269</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>9.145619710915776</v>
       </c>
     </row>
@@ -2182,19 +2200,19 @@
       <c r="A23" s="2">
         <v>44917</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="5">
         <v>35.673550655593203</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <v>39.239466069847133</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <v>10.491660313838571</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <v>18.43197808875734</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="5">
         <v>11.30466978895503</v>
       </c>
     </row>
@@ -2202,19 +2220,19 @@
       <c r="A24" s="2">
         <v>44918</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="5">
         <v>37.607414997437097</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <v>41.883563837863832</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <v>2.451837646515167</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <v>14.245373800068011</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="5">
         <v>9.3155549167387584</v>
       </c>
     </row>
@@ -2222,19 +2240,19 @@
       <c r="A25" s="2">
         <v>44919</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
         <v>46.72362361224252</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <v>42.283806773408479</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>5.5963718450834596</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <v>9.6773687426573467</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="5">
         <v>4.1251502053726661</v>
       </c>
     </row>
@@ -2242,19 +2260,19 @@
       <c r="A26" s="2">
         <v>44920</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="5">
         <v>37.762542519466663</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <v>43.340619475217309</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <v>9.7606152468828498</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="5">
         <v>16.151330714834039</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="5">
         <v>7.0367292781467654</v>
       </c>
     </row>
@@ -2262,19 +2280,19 @@
       <c r="A27" s="2">
         <v>44921</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="5">
         <v>34.068704344444043</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="5">
         <v>44.209865553160178</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="5">
         <v>17.421917345874</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="5">
         <v>22.530992733588661</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="5">
         <v>12.405422304004819</v>
       </c>
     </row>
@@ -2282,19 +2300,19 @@
       <c r="A28" s="2">
         <v>44922</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="5">
         <v>35.429899944144474</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="5">
         <v>43.679667261269287</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="5">
         <v>27.4402824087616</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="5">
         <v>19.36433875220273</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="5">
         <v>7.0867649118657852</v>
       </c>
     </row>
@@ -2302,19 +2320,19 @@
       <c r="A29" s="2">
         <v>44923</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="5">
         <v>45.802306573304477</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="5">
         <v>43.507158955968812</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="5">
         <v>29.414971671796401</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="5">
         <v>13.24888750809817</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="5">
         <v>3.9991198795637479</v>
       </c>
     </row>
@@ -2322,19 +2340,19 @@
       <c r="A30" s="2">
         <v>44924</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="5">
         <v>48.976478172815341</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <v>44.7090665153099</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="5">
         <v>27.404587110241799</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="5">
         <v>20.309820621803901</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="5">
         <v>8.4851544799715928</v>
       </c>
     </row>
@@ -2342,19 +2360,19 @@
       <c r="A31" s="2">
         <v>44925</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="5">
         <v>34.961317365742183</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
         <v>44.154671842935009</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="5">
         <v>5.4264547280165703</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="5">
         <v>21.80817977919391</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="5">
         <v>11.71396309655278</v>
       </c>
     </row>
@@ -2362,19 +2380,19 @@
       <c r="A32" s="2">
         <v>44926</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="5">
         <v>38.096128047270497</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <v>44.491437557839411</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="5">
         <v>16.264273498788398</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="5">
         <v>15.148502999949731</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="5">
         <v>5.3782139935334126</v>
       </c>
     </row>
@@ -2387,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95402C47-1752-4F1A-9497-F0E3DCAC32A3}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2420,19 +2438,19 @@
       <c r="A2" s="2">
         <v>44896</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>26.730280201298651</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>70.130780319565261</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>2.9396767163805819</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>6.1819794750406167</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>21.315476220226071</v>
       </c>
     </row>
@@ -2440,19 +2458,19 @@
       <c r="A3" s="2">
         <v>44897</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>32.216180582725123</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>57.732212384721407</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>14.648765384763699</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>12.80536915934106</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>19.60719595854669</v>
       </c>
     </row>
@@ -2460,19 +2478,19 @@
       <c r="A4" s="2">
         <v>44898</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>19.910597068697481</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>55.621759800153747</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>16.968667073286099</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>14.733582114544109</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>4.8325940959969937</v>
       </c>
     </row>
@@ -2480,19 +2498,19 @@
       <c r="A5" s="2">
         <v>44899</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>26.41596560568059</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>63.002477324197393</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>17.569110301840091</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>1.135183957362085</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>3.670276253091163</v>
       </c>
     </row>
@@ -2500,19 +2518,19 @@
       <c r="A6" s="2">
         <v>44900</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>25.705567221295041</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>65.230191035126055</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>10.98084480455384</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>2.008750674053656</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>7.3132689861735001</v>
       </c>
     </row>
@@ -2520,19 +2538,19 @@
       <c r="A7" s="2">
         <v>44901</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>17.610537456955281</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>64.292991975147402</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>20.238799967206941</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>3.76892796229111</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>16.51502909202809</v>
       </c>
     </row>
@@ -2540,19 +2558,19 @@
       <c r="A8" s="2">
         <v>44902</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>26.559937480702381</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>65.161906030119482</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>16.389093972397959</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>6.8645010090709473</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>26.37196069398615</v>
       </c>
     </row>
@@ -2560,19 +2578,19 @@
       <c r="A9" s="2">
         <v>44903</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>25.398460436197901</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>67.050399609361918</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>8.9166156804074976</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>1.3964950183249061</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>5.9388410905524873</v>
       </c>
     </row>
@@ -2580,19 +2598,19 @@
       <c r="A10" s="2">
         <v>44904</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>30.19036669990286</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>56.651259718996428</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>12.194882481222001</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>3.1066681240845968</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>11.516232779707529</v>
       </c>
     </row>
@@ -2600,19 +2618,19 @@
       <c r="A11" s="2">
         <v>44905</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>20.55055158462072</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>68.141283431474548</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>15.15476203756389</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>9.3758103230195839</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>14.06950186679757</v>
       </c>
     </row>
@@ -2620,19 +2638,19 @@
       <c r="A12" s="2">
         <v>44906</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>26.12636133978982</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
         <v>58.301611476964403</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>7.5269541030254006</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
         <v>8.0139228237103595</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="6">
         <v>8.6246808343582053</v>
       </c>
     </row>
@@ -2640,19 +2658,19 @@
       <c r="A13" s="2">
         <v>44907</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <v>27.502323011250581</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
         <v>62.448785108483229</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <v>20.878091334349481</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>13.72707779320419</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="6">
         <v>11.222578537892989</v>
       </c>
     </row>
@@ -2660,19 +2678,19 @@
       <c r="A14" s="2">
         <v>44908</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>21.766027207668511</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>63.129255316597337</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <v>7.7591972544789414</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>14.53187620503212</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="6">
         <v>3.496457187176079</v>
       </c>
     </row>
@@ -2680,19 +2698,19 @@
       <c r="A15" s="2">
         <v>44909</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>21.614797473813741</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>61.678515480659058</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <v>21.941603642500191</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>2.2495618135139801</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="6">
         <v>4.9817748983550398</v>
       </c>
     </row>
@@ -2700,19 +2718,19 @@
       <c r="A16" s="2">
         <v>44910</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>20.170240912487191</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>57.498748891533467</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <v>0.57902487527526103</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="6">
         <v>11.374996722974901</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="6">
         <v>7.7556475877833204</v>
       </c>
     </row>
@@ -2720,19 +2738,19 @@
       <c r="A17" s="2">
         <v>44911</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <v>26.02389732249916</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>61.051430962509038</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="6">
         <v>10.31736276025409</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="6">
         <v>4.7196087033765792</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="6">
         <v>2.4851808597139899</v>
       </c>
     </row>
@@ -2740,19 +2758,19 @@
       <c r="A18" s="2">
         <v>44912</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>23.565878747264321</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>57.723470272344748</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="6">
         <v>4.697184182119722</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="6">
         <v>7.3521643352372577</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="6">
         <v>23.902638502164201</v>
       </c>
     </row>
@@ -2760,19 +2778,19 @@
       <c r="A19" s="2">
         <v>44913</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>26.456490045316229</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>51.961606074975549</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="6">
         <v>24.411340147716871</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="6">
         <v>0.28959357294106602</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="6">
         <v>2.7598750113956498</v>
       </c>
     </row>
@@ -2780,19 +2798,19 @@
       <c r="A20" s="2">
         <v>44914</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>25.72076717080223</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="6">
         <v>49.787557042977951</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="6">
         <v>1.99031848297286</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="6">
         <v>2.130647093249288</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="6">
         <v>0.29560277928509798</v>
       </c>
     </row>
@@ -2800,19 +2818,19 @@
       <c r="A21" s="2">
         <v>44915</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="6">
         <v>27.281862368827731</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="6">
         <v>45.811236374823181</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="6">
         <v>13.94928509439036</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="6">
         <v>2.8583646358585599</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="6">
         <v>8.7008346522649749</v>
       </c>
     </row>
@@ -2820,19 +2838,19 @@
       <c r="A22" s="2">
         <v>44916</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="6">
         <v>28.261908712134272</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="6">
         <v>50.73299325433991</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="6">
         <v>16.60421687893562</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="6">
         <v>1.2446929852888979</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="6">
         <v>26.295449831647002</v>
       </c>
     </row>
@@ -2840,19 +2858,19 @@
       <c r="A23" s="2">
         <v>44917</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="6">
         <v>30.055353029673959</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="6">
         <v>50.155250295879881</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="6">
         <v>5.4218335253899852</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="6">
         <v>1.111884071868191</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="6">
         <v>43.306123020274612</v>
       </c>
     </row>
@@ -2860,19 +2878,19 @@
       <c r="A24" s="2">
         <v>44918</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="6">
         <v>29.643124492933239</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="6">
         <v>48.356330716289257</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="6">
         <v>1.4741183994483149</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="6">
         <v>10.52261741016849</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="6">
         <v>25.48476421242173</v>
       </c>
     </row>
@@ -2880,19 +2898,19 @@
       <c r="A25" s="2">
         <v>44919</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="6">
         <v>30.850201734947799</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="6">
         <v>56.801081863365731</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="6">
         <v>4.4206529836285764</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="6">
         <v>6.6501377955562297</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="6">
         <v>9.1666622250886931</v>
       </c>
     </row>
@@ -2900,19 +2918,19 @@
       <c r="A26" s="2">
         <v>44920</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="6">
         <v>34.527939211620748</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="6">
         <v>45.684637612785806</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="6">
         <v>9.2227930256156707</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="6">
         <v>5.6518867333522458</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="6">
         <v>41.029577928337233</v>
       </c>
     </row>
@@ -2920,19 +2938,19 @@
       <c r="A27" s="2">
         <v>44921</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="6">
         <v>36.136590750783853</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <v>49.018442517045479</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="6">
         <v>1.8976802246325799</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="6">
         <v>1.1723190530382299</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="6">
         <v>34.65335448417045</v>
       </c>
     </row>
@@ -2940,19 +2958,19 @@
       <c r="A28" s="2">
         <v>44922</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="6">
         <v>21.925162119045812</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="6">
         <v>43.376326375542483</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="6">
         <v>18.11311639135976</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="6">
         <v>3.3482793393236499</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="6">
         <v>8.4168302625150293</v>
       </c>
     </row>
@@ -2960,19 +2978,19 @@
       <c r="A29" s="2">
         <v>44923</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="6">
         <v>24.150675632207552</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="6">
         <v>47.960966275689408</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="6">
         <v>7.0116349381928504</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="6">
         <v>0.61357028320135898</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="6">
         <v>33.230932282230498</v>
       </c>
     </row>
@@ -2980,19 +2998,19 @@
       <c r="A30" s="2">
         <v>44924</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="6">
         <v>20.160634329563759</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="6">
         <v>52.403417289183217</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="6">
         <v>1.6661915765870501</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="6">
         <v>0.31690104454679702</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="6">
         <v>85.506835346843204</v>
       </c>
     </row>
@@ -3000,19 +3018,19 @@
       <c r="A31" s="2">
         <v>44925</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="6">
         <v>19.17010841018821</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="6">
         <v>57.613265414421512</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="6">
         <v>12.5768849159415</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="6">
         <v>0.85576528883515302</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="6">
         <v>98.343449569546607</v>
       </c>
     </row>
@@ -3020,19 +3038,19 @@
       <c r="A32" s="2">
         <v>44926</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="6">
         <v>29.55858305427774</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="6">
         <v>61.453430072665412</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="6">
         <v>25.079545003250502</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="6">
         <v>1.7315333663683929</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="6">
         <v>87.285055953454204</v>
       </c>
     </row>
@@ -3045,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69B560A-1A2B-47C6-8C44-2FE62788F89A}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3078,19 +3096,19 @@
       <c r="A2" s="2">
         <v>44896</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>57.318601977138592</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>33.756001141181187</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>7.1761940009693976</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="7">
         <v>14.778391524493459</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="7">
         <v>4.8284654369171527</v>
       </c>
     </row>
@@ -3098,19 +3116,19 @@
       <c r="A3" s="2">
         <v>44897</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="7">
         <v>55.80122327361078</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>38.341696347086007</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>12.138370114200621</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>37.775697250028138</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>6.8811371162287722</v>
       </c>
     </row>
@@ -3118,19 +3136,19 @@
       <c r="A4" s="2">
         <v>44898</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="7">
         <v>42.504138397703727</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>7.8548431513336681E-3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>11.252441609377231</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>13.47277996216415</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <v>7.2928259759020513</v>
       </c>
     </row>
@@ -3138,19 +3156,19 @@
       <c r="A5" s="2">
         <v>44899</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>47.213572215819092</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>15.550407340497591</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>9.5377712893777797</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>15.08844122674747</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>7.5690392842487606</v>
       </c>
     </row>
@@ -3158,19 +3176,19 @@
       <c r="A6" s="2">
         <v>44900</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>45.2788233638625</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>9.6844166715242537</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>13.939353435499561</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <v>29.473483325160309</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="7">
         <v>2.7572059179749551</v>
       </c>
     </row>
@@ -3178,19 +3196,19 @@
       <c r="A7" s="2">
         <v>44901</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <v>29.90993986756331</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>24.929520150513529</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>15.48802381587668</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <v>27.09139691916269</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="7">
         <v>3.759773497539455</v>
       </c>
     </row>
@@ -3198,19 +3216,19 @@
       <c r="A8" s="2">
         <v>44902</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="7">
         <v>34.726022437506252</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>31.862707484849409</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>10.891053217673379</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
         <v>36.317693639582011</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="7">
         <v>5.4223136687127544</v>
       </c>
     </row>
@@ -3218,19 +3236,19 @@
       <c r="A9" s="2">
         <v>44903</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <v>27.8668433298906</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>47.788889903559621</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>6.9385282738772078</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
         <v>21.783303698336809</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="7">
         <v>6.3927562325734879</v>
       </c>
     </row>
@@ -3238,19 +3256,19 @@
       <c r="A10" s="2">
         <v>44904</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="7">
         <v>30.330895649329221</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>15.65272183739453</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>4.7253798514567604</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>28.685898441377081</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="7">
         <v>4.4009756459217471</v>
       </c>
     </row>
@@ -3258,19 +3276,19 @@
       <c r="A11" s="2">
         <v>44905</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="7">
         <v>36.451892160174623</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>4.2294589020256703</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>8.851371516115103</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <v>29.175010853190852</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="7">
         <v>4.6724961612387599</v>
       </c>
     </row>
@@ -3278,19 +3296,19 @@
       <c r="A12" s="2">
         <v>44906</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="7">
         <v>36.575616000921258</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>2.7170776312329199</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>3.3797451878078588</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <v>29.206112056258789</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="7">
         <v>7.7483564435252408</v>
       </c>
     </row>
@@ -3298,19 +3316,19 @@
       <c r="A13" s="2">
         <v>44907</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="7">
         <v>27.375527004729339</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>16.442726800077359</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>5.2299394187366204</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="7">
         <v>50.244871481284271</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="7">
         <v>3.5327832625118418</v>
       </c>
     </row>
@@ -3318,19 +3336,19 @@
       <c r="A14" s="2">
         <v>44908</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="7">
         <v>30.670769893987689</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>60.618117260617147</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>4.2942698837656428</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
         <v>35.277012025927647</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="7">
         <v>3.0000536549059471</v>
       </c>
     </row>
@@ -3338,19 +3356,19 @@
       <c r="A15" s="2">
         <v>44909</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="7">
         <v>28.24074132797374</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <v>27.004829633562309</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>8.5560391857734928</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
         <v>48.18979143852296</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="7">
         <v>3.9938469892839001E-2</v>
       </c>
     </row>
@@ -3358,19 +3376,19 @@
       <c r="A16" s="2">
         <v>44910</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="7">
         <v>35.220417483090067</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>28.918457517652708</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>6.4703542139181991</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="7">
         <v>15.58971240295565</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="7">
         <v>3.6771255532798341</v>
       </c>
     </row>
@@ -3378,19 +3396,19 @@
       <c r="A17" s="2">
         <v>44911</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="7">
         <v>40.056375908051251</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>37.355259138450073</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>9.4399002783147328</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="7">
         <v>27.389419599578641</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="7">
         <v>2.6109237231808531</v>
       </c>
     </row>
@@ -3398,19 +3416,19 @@
       <c r="A18" s="2">
         <v>44912</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="7">
         <v>40.888059451969582</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>8.3039893899821973</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>6.3318643395462741</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="7">
         <v>15.785365703766081</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="7">
         <v>5.3851711982330919</v>
       </c>
     </row>
@@ -3418,19 +3436,19 @@
       <c r="A19" s="2">
         <v>44913</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="7">
         <v>43.588384685268537</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>30.2359854522322</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>11.78201888126025</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="7">
         <v>3.74318952171937</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="7">
         <v>7.1386468128567042</v>
       </c>
     </row>
@@ -3438,19 +3456,19 @@
       <c r="A20" s="2">
         <v>44914</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="7">
         <v>43.55682567156984</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <v>43.444262598592829</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <v>6.3661835939958884</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="7">
         <v>25.641829165193439</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="7">
         <v>8.6571830892164421</v>
       </c>
     </row>
@@ -3458,19 +3476,19 @@
       <c r="A21" s="2">
         <v>44915</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="7">
         <v>43.184927054305717</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>29.122313065498801</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>7.7734328910736306</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="7">
         <v>54.050587044791399</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="7">
         <v>7.9109249082749509</v>
       </c>
     </row>
@@ -3478,19 +3496,19 @@
       <c r="A22" s="2">
         <v>44916</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="7">
         <v>39.870243867910538</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="7">
         <v>14.0793453847392</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>7.0348890152313244</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="7">
         <v>29.609637685976551</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="7">
         <v>3.8995729838725541</v>
       </c>
     </row>
@@ -3498,19 +3516,19 @@
       <c r="A23" s="2">
         <v>44917</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="7">
         <v>39.277470913275039</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <v>6.2926781085827557</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>3.303544136387301</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="7">
         <v>37.381637153012427</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="7">
         <v>4.6281234053606317</v>
       </c>
     </row>
@@ -3518,19 +3536,19 @@
       <c r="A24" s="2">
         <v>44918</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="7">
         <v>42.932517362658487</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="7">
         <v>37.209349494891804</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>8.8344921411493793</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="7">
         <v>44.026311432863153</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="7">
         <v>4.0665296062483929</v>
       </c>
     </row>
@@ -3538,19 +3556,19 @@
       <c r="A25" s="2">
         <v>44919</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="7">
         <v>37.549584986587561</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="7">
         <v>55.356593750144263</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="7">
         <v>8.8811935396142445</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="7">
         <v>20.2746639296316</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="7">
         <v>5.8529304524723988</v>
       </c>
     </row>
@@ -3558,19 +3576,19 @@
       <c r="A26" s="2">
         <v>44920</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="7">
         <v>33.492537793525273</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="7">
         <v>8.4174464292215401</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="7">
         <v>9.8021194534137415</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="7">
         <v>20.536210388758199</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="7">
         <v>4.6560614204939954</v>
       </c>
     </row>
@@ -3578,19 +3596,19 @@
       <c r="A27" s="2">
         <v>44921</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="7">
         <v>38.128009461246869</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="7">
         <v>75.690494237687346</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="7">
         <v>3.799470985434116</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="7">
         <v>5.8195606436454401</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="7">
         <v>3.9221216899399312</v>
       </c>
     </row>
@@ -3598,19 +3616,19 @@
       <c r="A28" s="2">
         <v>44922</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="7">
         <v>34.781187548870143</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="7">
         <v>66.009943783452215</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="7">
         <v>8.6055320035142255</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="7">
         <v>16.167115701905399</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="7">
         <v>4.9434755645688986</v>
       </c>
     </row>
@@ -3618,19 +3636,19 @@
       <c r="A29" s="2">
         <v>44923</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="7">
         <v>43.656677548005547</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="7">
         <v>5.76331350645318</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="7">
         <v>8.6816826302684884</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="7">
         <v>6.9612088680227222</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="7">
         <v>7.0029219171906201</v>
       </c>
     </row>
@@ -3638,19 +3656,19 @@
       <c r="A30" s="2">
         <v>44924</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="7">
         <v>53.786576920808088</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="7">
         <v>22.507244831487402</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="7">
         <v>11.237728518216169</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="7">
         <v>1.8293080457976101</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="7">
         <v>8.0444485392409923</v>
       </c>
     </row>
@@ -3658,19 +3676,19 @@
       <c r="A31" s="2">
         <v>44925</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="7">
         <v>51.266216921939147</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="7">
         <v>11.7141115405747</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="7">
         <v>10.65135017651742</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="7">
         <v>38.156487240656531</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="7">
         <v>8.9660177830483967</v>
       </c>
     </row>
@@ -3678,19 +3696,19 @@
       <c r="A32" s="2">
         <v>44926</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="7">
         <v>58.873296247431981</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="7">
         <v>18.050709097234641</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="7">
         <v>9.3200104823422247</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="7">
         <v>19.587951010244819</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="7">
         <v>7.1286091391720801</v>
       </c>
     </row>
